--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/DELAWARE_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/DELAWARE_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C7">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C9">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C27">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C41">
@@ -945,7 +945,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C44">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C45">
@@ -1093,7 +1093,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C54">
@@ -1132,7 +1132,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C57">
@@ -1145,7 +1145,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C58">
@@ -1210,7 +1210,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C63">
@@ -1249,7 +1249,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C66">
@@ -1262,7 +1262,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C67">
@@ -1275,7 +1275,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C68">
@@ -1340,7 +1340,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C73">
@@ -1405,7 +1405,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C78">
@@ -1444,7 +1444,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C81">
@@ -1457,7 +1457,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C82">
@@ -1535,7 +1535,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C99">
@@ -1706,7 +1706,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C100">
@@ -1732,7 +1732,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C102">
@@ -1745,7 +1745,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C103">
@@ -1758,7 +1758,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C104">
@@ -1771,7 +1771,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C105">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C109">
@@ -1836,7 +1836,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C110">
@@ -1849,7 +1849,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C111">
@@ -1927,7 +1927,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C117">
@@ -1953,7 +1953,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C119">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C125">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C127">
@@ -2119,7 +2119,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C131">
@@ -2158,7 +2158,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C134">
@@ -2184,7 +2184,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C136">
@@ -2675,7 +2675,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C173">
@@ -2714,7 +2714,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C176">
@@ -2810,7 +2810,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C183">
@@ -2906,7 +2906,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C190">
@@ -2932,7 +2932,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C192">
@@ -3166,7 +3166,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C210">
@@ -3179,7 +3179,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C211">
@@ -3249,7 +3249,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C216">
@@ -3340,7 +3340,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C223">
@@ -3418,7 +3418,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C229">
@@ -3444,7 +3444,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C231">
@@ -3535,7 +3535,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C238">
@@ -3600,7 +3600,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C243">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C250">
@@ -3735,7 +3735,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C253">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C256">
@@ -3945,7 +3945,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C268">
@@ -4168,7 +4168,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C284">
@@ -4194,7 +4194,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C286">
@@ -4233,7 +4233,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C289">
@@ -4272,7 +4272,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C292">
@@ -4285,7 +4285,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C293">
@@ -4311,7 +4311,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C295">
@@ -4350,7 +4350,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C298">
@@ -4428,7 +4428,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C304">
@@ -4467,7 +4467,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C307">
@@ -4693,41 +4693,6 @@
       </c>
       <c r="D323">
         <v>1</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/DELAWARE_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/DELAWARE_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Ixhuatán</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Calimaya</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cocotitlán</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1143,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ixtapan Del Oro</t>
@@ -1156,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1169,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -1182,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1195,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1208,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1221,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1234,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Ocoyoacac</t>
@@ -1247,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Martín De Las Pirámides</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Simón De Guerero</t>
@@ -1286,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1299,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1312,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -1325,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1338,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1351,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tepetlaoxtoc</t>
@@ -1364,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tepotzotlán</t>
@@ -1377,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -1390,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1403,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1416,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1429,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -1442,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -1455,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -1468,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Villa Guerero</t>
@@ -1481,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -1494,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -1507,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -1520,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1551,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1564,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>León</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1603,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -1616,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1629,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1642,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -1655,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2078,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Chapala</t>
@@ -2091,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -2104,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -2117,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2130,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2143,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -2156,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2169,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -2182,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2195,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2208,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -2221,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -2291,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -2304,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -2317,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -2330,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -2343,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -2356,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -2369,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2382,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -2395,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -2408,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -2421,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2434,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2447,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -2460,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -2473,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -2486,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -2499,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -2512,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -2525,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2538,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2551,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2564,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -2577,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -2621,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2634,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2647,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -2660,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -2673,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -2686,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -2699,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -2712,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -2725,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -2738,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tlayacapan</t>
@@ -2751,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -2764,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -2777,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2808,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -2821,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -2834,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -2847,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2860,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2891,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Nuevo Zoquiápam</t>
@@ -2904,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -2917,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -2930,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2943,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>San Gabriel Mixtepec</t>
@@ -2956,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -2969,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -2982,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San Juan Teitipac</t>
@@ -2995,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Juan Tepeuxila</t>
@@ -3008,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>San Juan Yatzona</t>
@@ -3021,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -3034,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>San Miguel Quetzaltepec</t>
@@ -3047,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>San Miguel Tequixtepec</t>
@@ -3060,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>San Sebastián Abasolo</t>
@@ -3073,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -3086,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -3099,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -3112,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Santo Domingo Tepuxtepec</t>
@@ -3125,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -3138,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Santo Domingo Zanatepec</t>
@@ -3151,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -3164,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3177,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -3190,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3221,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -3234,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -3247,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Ayotoxco De Guerero</t>
@@ -3260,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -3273,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -3286,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -3299,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -3312,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -3325,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Cohetzala</t>
@@ -3338,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -3351,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -3364,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -3377,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -3390,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -3403,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -3416,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -3429,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3442,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -3455,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -3468,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3481,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -3494,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>San Jerónimo Xayacatlán</t>
@@ -3507,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -3520,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -3533,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -3546,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -3559,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Teopantlán</t>
@@ -3572,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -3585,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -3598,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -3611,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -3624,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Xicotlán</t>
@@ -3637,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -3650,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -3663,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -3676,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3707,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -3720,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -3733,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -3746,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -3759,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3790,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -3803,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -3816,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -3829,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Tampamolón Corona</t>
@@ -3842,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3873,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3904,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -3917,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -3930,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -3943,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -3956,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -3969,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Paraíso</t>
@@ -3982,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4013,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -4026,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -4039,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4070,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -4083,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -4096,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4127,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -4140,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -4153,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -4166,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Boca Del Río</t>
@@ -4179,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -4192,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -4205,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -4218,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -4231,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -4244,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -4257,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -4270,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -4283,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -4296,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -4309,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -4322,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -4335,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -4348,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -4361,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -4374,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -4387,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -4400,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -4413,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -4426,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -4439,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -4452,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -4465,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -4478,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -4491,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -4504,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -4517,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -4530,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4543,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4556,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4587,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4618,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -4631,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -4644,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -4657,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4670,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Total</t>
